--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject7.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject7.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -137,7 +137,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1" s="0">
         <v>0</v>
@@ -191,7 +191,7 @@
         <v>0</v>
       </c>
       <c r="V1" s="0">
-        <v>0</v>
+        <v>0.93360106325978176</v>
       </c>
       <c r="W1" s="0">
         <v>0</v>
@@ -206,7 +206,7 @@
         <v>0</v>
       </c>
       <c r="AA1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB1" s="0">
         <v>0</v>
@@ -263,10 +263,10 @@
         <v>0</v>
       </c>
       <c r="AT1" s="0">
-        <v>0</v>
+        <v>0.52768834619375204</v>
       </c>
       <c r="AU1" s="0">
-        <v>0</v>
+        <v>0.98869670071142757</v>
       </c>
       <c r="AV1" s="0">
         <v>0</v>
@@ -317,7 +317,7 @@
         <v>0</v>
       </c>
       <c r="BL1" s="0">
-        <v>0</v>
+        <v>0.75489724845499895</v>
       </c>
       <c r="BM1" s="0">
         <v>0</v>
@@ -343,7 +343,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="0">
-        <v>1</v>
+        <v>0.89674468008406061</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -361,7 +361,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="0">
-        <v>0</v>
+        <v>0.97896440450941746</v>
       </c>
       <c r="K2" s="0">
         <v>0</v>
@@ -385,7 +385,7 @@
         <v>0</v>
       </c>
       <c r="R2" s="0">
-        <v>0</v>
+        <v>0.93509283642994778</v>
       </c>
       <c r="S2" s="0">
         <v>0</v>
@@ -436,7 +436,7 @@
         <v>0</v>
       </c>
       <c r="AI2" s="0">
-        <v>0</v>
+        <v>0.7562690012393245</v>
       </c>
       <c r="AJ2" s="0">
         <v>0</v>
@@ -505,7 +505,7 @@
         <v>0</v>
       </c>
       <c r="BF2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG2" s="0">
         <v>0</v>
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -549,13 +549,13 @@
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="0">
-        <v>0</v>
+        <v>0.91892755408513493</v>
       </c>
       <c r="F3" s="0">
-        <v>0</v>
+        <v>0.57484955735136678</v>
       </c>
       <c r="G3" s="0">
         <v>0</v>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="Q3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" s="0">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="AJ3" s="0">
-        <v>0</v>
+        <v>0.73951415964874434</v>
       </c>
       <c r="AK3" s="0">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="BB3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC3" s="0">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="BG3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH3" s="0">
         <v>0</v>
@@ -741,18 +741,18 @@
         <v>0</v>
       </c>
       <c r="BP3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>1</v>
+        <v>0.55657491102282841</v>
       </c>
       <c r="C4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="0">
-        <v>0</v>
+        <v>0.95231206501535226</v>
       </c>
       <c r="J4" s="0">
         <v>0</v>
@@ -794,13 +794,13 @@
         <v>0</v>
       </c>
       <c r="Q4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="0">
         <v>0</v>
       </c>
       <c r="S4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" s="0">
         <v>0</v>
@@ -869,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="AP4" s="0">
-        <v>0</v>
+        <v>0.78369839954446863</v>
       </c>
       <c r="AQ4" s="0">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>0</v>
       </c>
       <c r="AS4" s="0">
-        <v>0</v>
+        <v>0.68002740110455506</v>
       </c>
       <c r="AT4" s="0">
         <v>0</v>
       </c>
       <c r="AU4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV4" s="0">
         <v>0</v>
@@ -899,13 +899,13 @@
         <v>0</v>
       </c>
       <c r="AZ4" s="0">
-        <v>0</v>
+        <v>0.71593561335324518</v>
       </c>
       <c r="BA4" s="0">
         <v>0</v>
       </c>
       <c r="BB4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC4" s="0">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0</v>
+        <v>0.61892222495231386</v>
       </c>
       <c r="D5" s="0">
         <v>0</v>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="0">
         <v>0</v>
@@ -997,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="0">
-        <v>0</v>
+        <v>0.66096142318013817</v>
       </c>
       <c r="Q5" s="0">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="X5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="0">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="AH5" s="0">
-        <v>0</v>
+        <v>0.71925730366336715</v>
       </c>
       <c r="AI5" s="0">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="AK5" s="0">
-        <v>1</v>
+        <v>0.77597750973533497</v>
       </c>
       <c r="AL5" s="0">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="AV5" s="0">
-        <v>0</v>
+        <v>0.68479469015611483</v>
       </c>
       <c r="AW5" s="0">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="BK5" s="0">
-        <v>0</v>
+        <v>0.85516129644963179</v>
       </c>
       <c r="BL5" s="0">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="BN5" s="0">
-        <v>0</v>
+        <v>0.95040906956503401</v>
       </c>
       <c r="BO5" s="0">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="0">
-        <v>0</v>
+        <v>0.59732672306840384</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>0</v>
+        <v>0.94059117049602281</v>
       </c>
       <c r="H6" s="0">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="P6" s="0">
-        <v>0</v>
+        <v>0.9750965557909006</v>
       </c>
       <c r="Q6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" s="0">
         <v>0</v>
@@ -1236,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="AA6" s="0">
-        <v>0</v>
+        <v>0.66961750156366073</v>
       </c>
       <c r="AB6" s="0">
         <v>0</v>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="AG6" s="0">
-        <v>0</v>
+        <v>0.55310158002077503</v>
       </c>
       <c r="AH6" s="0">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="AN6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="0">
         <v>0</v>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="AV6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW6" s="0">
         <v>0</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="BE6" s="0">
-        <v>0</v>
+        <v>0.75477778480148361</v>
       </c>
       <c r="BF6" s="0">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="BM6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="0">
         <v>0</v>
@@ -1379,13 +1379,13 @@
         <v>0</v>
       </c>
       <c r="F7" s="0">
-        <v>0</v>
+        <v>0.57815424690575545</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>0</v>
+        <v>0.99038029581945031</v>
       </c>
       <c r="I7" s="0">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="0">
-        <v>0</v>
+        <v>0.98254490123674898</v>
       </c>
       <c r="AD7" s="0">
         <v>0</v>
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="AF7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG7" s="0">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="AN7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="0">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="AS7" s="0">
-        <v>0</v>
+        <v>0.50586621484590477</v>
       </c>
       <c r="AT7" s="0">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="AV7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW7" s="0">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="BH7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="0">
         <v>0</v>
@@ -1556,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="BM7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="0">
         <v>0</v>
@@ -1588,19 +1588,19 @@
         <v>0</v>
       </c>
       <c r="G8" s="0">
-        <v>0</v>
+        <v>0.74540770358173658</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="0">
-        <v>0</v>
+        <v>0.77784332600974015</v>
       </c>
       <c r="K8" s="0">
-        <v>0</v>
+        <v>0.52118245396769836</v>
       </c>
       <c r="L8" s="0">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="AH8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI8" s="0">
         <v>0</v>
@@ -1678,7 +1678,7 @@
         <v>0</v>
       </c>
       <c r="AK8" s="0">
-        <v>0</v>
+        <v>0.78730089215592569</v>
       </c>
       <c r="AL8" s="0">
         <v>0</v>
@@ -1741,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="BF8" s="0">
-        <v>0</v>
+        <v>0.67394579170152746</v>
       </c>
       <c r="BG8" s="0">
         <v>0</v>
@@ -1750,13 +1750,13 @@
         <v>0</v>
       </c>
       <c r="BI8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ8" s="0">
         <v>0</v>
       </c>
       <c r="BK8" s="0">
-        <v>0</v>
+        <v>0.78812704337058082</v>
       </c>
       <c r="BL8" s="0">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>0</v>
+        <v>0.81269021304563294</v>
       </c>
       <c r="E9" s="0">
         <v>0</v>
@@ -1797,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -1842,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="0">
-        <v>0</v>
+        <v>0.90965813750103341</v>
       </c>
       <c r="X9" s="0">
         <v>0</v>
@@ -1857,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="AB9" s="0">
-        <v>0</v>
+        <v>0.73282734768726987</v>
       </c>
       <c r="AC9" s="0">
         <v>0</v>
@@ -1872,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="AG9" s="0">
-        <v>1</v>
+        <v>0.78062655152021332</v>
       </c>
       <c r="AH9" s="0">
         <v>0</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="AY9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ9" s="0">
         <v>0</v>
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="BJ9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK9" s="0">
         <v>0</v>
@@ -1985,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="0">
-        <v>0</v>
+        <v>0.90247663975004655</v>
       </c>
       <c r="C10" s="0">
         <v>0</v>
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>0</v>
+        <v>0.85271147127139191</v>
       </c>
       <c r="I10" s="0">
         <v>0</v>
@@ -2012,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>0</v>
+        <v>0.7945364928723031</v>
       </c>
       <c r="L10" s="0">
         <v>0</v>
@@ -2057,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="Z10" s="0">
-        <v>0</v>
+        <v>0.78722208833158192</v>
       </c>
       <c r="AA10" s="0">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="AG10" s="0">
-        <v>0</v>
+        <v>0.92936303117669161</v>
       </c>
       <c r="AH10" s="0">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="AZ10" s="0">
-        <v>0</v>
+        <v>0.6615532534730364</v>
       </c>
       <c r="BA10" s="0">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="BD10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE10" s="0">
         <v>0</v>
@@ -2165,13 +2165,13 @@
         <v>0</v>
       </c>
       <c r="BJ10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK10" s="0">
         <v>0</v>
       </c>
       <c r="BL10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM10" s="0">
         <v>0</v>
@@ -2209,13 +2209,13 @@
         <v>0</v>
       </c>
       <c r="H11" s="0">
-        <v>0</v>
+        <v>0.77336474643349873</v>
       </c>
       <c r="I11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="0">
-        <v>0</v>
+        <v>0.99910228842123938</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="S11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" s="0">
         <v>0</v>
@@ -2293,13 +2293,13 @@
         <v>0</v>
       </c>
       <c r="AJ11" s="0">
-        <v>0</v>
+        <v>0.83231385879148934</v>
       </c>
       <c r="AK11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL11" s="0">
-        <v>0</v>
+        <v>0.61986943269906303</v>
       </c>
       <c r="AM11" s="0">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="AY11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ11" s="0">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="BK11" s="0">
-        <v>1</v>
+        <v>0.99709035606657803</v>
       </c>
       <c r="BL11" s="0">
         <v>0</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="0">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="0">
         <v>0</v>
@@ -2445,10 +2445,10 @@
         <v>0</v>
       </c>
       <c r="R12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" s="0">
-        <v>0</v>
+        <v>0.50988949316413668</v>
       </c>
       <c r="T12" s="0">
         <v>0</v>
@@ -2556,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="BC12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="0">
         <v>0</v>
@@ -2565,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="BF12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG12" s="0">
         <v>0</v>
@@ -2580,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="BK12" s="0">
-        <v>0</v>
+        <v>0.7532585423664353</v>
       </c>
       <c r="BL12" s="0">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="0">
         <v>0</v>
@@ -2729,16 +2729,16 @@
         <v>0</v>
       </c>
       <c r="AR13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS13" s="0">
         <v>0</v>
       </c>
       <c r="AT13" s="0">
-        <v>0</v>
+        <v>0.6177205025393373</v>
       </c>
       <c r="AU13" s="0">
-        <v>0</v>
+        <v>0.79304963026265574</v>
       </c>
       <c r="AV13" s="0">
         <v>0</v>
@@ -2753,7 +2753,7 @@
         <v>0</v>
       </c>
       <c r="AZ13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA13" s="0">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>0</v>
+        <v>0.69772344051911905</v>
       </c>
       <c r="P14" s="0">
         <v>0</v>
@@ -2881,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="Z14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA14" s="0">
         <v>0</v>
@@ -2899,7 +2899,7 @@
         <v>0</v>
       </c>
       <c r="AF14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG14" s="0">
         <v>0</v>
@@ -2908,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="AI14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="0">
         <v>0</v>
@@ -2920,7 +2920,7 @@
         <v>0</v>
       </c>
       <c r="AM14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN14" s="0">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="AV14" s="0">
-        <v>0</v>
+        <v>0.83959280976964856</v>
       </c>
       <c r="AW14" s="0">
         <v>0</v>
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="AZ14" s="0">
-        <v>0</v>
+        <v>0.90322369943105074</v>
       </c>
       <c r="BA14" s="0">
         <v>0</v>
@@ -2977,7 +2977,7 @@
         <v>0</v>
       </c>
       <c r="BF14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG14" s="0">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="BM14" s="0">
-        <v>0</v>
+        <v>0.66196868069195269</v>
       </c>
       <c r="BN14" s="0">
         <v>0</v>
@@ -3051,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="0">
-        <v>0</v>
+        <v>0.83548972526585996</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
@@ -3084,7 +3084,7 @@
         <v>0</v>
       </c>
       <c r="Y15" s="0">
-        <v>0</v>
+        <v>0.95692011099735497</v>
       </c>
       <c r="Z15" s="0">
         <v>0</v>
@@ -3117,13 +3117,13 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="0">
-        <v>0</v>
+        <v>0.8627436468613302</v>
       </c>
       <c r="AK15" s="0">
         <v>0</v>
       </c>
       <c r="AL15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15" s="0">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="AO15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP15" s="0">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="BJ15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK15" s="0">
         <v>0</v>
@@ -3230,10 +3230,10 @@
         <v>0</v>
       </c>
       <c r="E16" s="0">
-        <v>0</v>
+        <v>0.77975686285175549</v>
       </c>
       <c r="F16" s="0">
-        <v>0</v>
+        <v>0.83385310401768953</v>
       </c>
       <c r="G16" s="0">
         <v>0</v>
@@ -3254,7 +3254,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" s="0">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="R16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="U16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16" s="0">
         <v>0</v>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="AY16" s="0">
-        <v>0</v>
+        <v>0.68594982415996242</v>
       </c>
       <c r="AZ16" s="0">
         <v>0</v>
@@ -3404,10 +3404,10 @@
         <v>0</v>
       </c>
       <c r="BK16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL16" s="0">
-        <v>0</v>
+        <v>0.58597093355401664</v>
       </c>
       <c r="BM16" s="0">
         <v>0</v>
@@ -3430,16 +3430,16 @@
         <v>0</v>
       </c>
       <c r="C17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" s="0">
         <v>0</v>
       </c>
       <c r="F17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" s="0">
         <v>0</v>
@@ -3493,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="X17" s="0">
-        <v>0</v>
+        <v>0.74892172786858269</v>
       </c>
       <c r="Y17" s="0">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         <v>0</v>
       </c>
       <c r="AA17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB17" s="0">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="AS17" s="0">
-        <v>0</v>
+        <v>0.64823085725352525</v>
       </c>
       <c r="AT17" s="0">
         <v>0</v>
@@ -3601,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="BH17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="0">
         <v>0</v>
@@ -3625,7 +3625,7 @@
         <v>0</v>
       </c>
       <c r="BP17" s="0">
-        <v>0</v>
+        <v>0.51537894452098254</v>
       </c>
     </row>
     <row r="18">
@@ -3633,7 +3633,7 @@
         <v>0</v>
       </c>
       <c r="B18" s="0">
-        <v>0</v>
+        <v>0.59235803666418319</v>
       </c>
       <c r="C18" s="0">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" s="0">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="0">
         <v>0</v>
@@ -3687,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3696,10 +3696,10 @@
         <v>0</v>
       </c>
       <c r="W18" s="0">
-        <v>0</v>
+        <v>0.92717656620103561</v>
       </c>
       <c r="X18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y18" s="0">
         <v>0</v>
@@ -3792,7 +3792,7 @@
         <v>0</v>
       </c>
       <c r="BC18" s="0">
-        <v>0</v>
+        <v>0.63060576816051883</v>
       </c>
       <c r="BD18" s="0">
         <v>0</v>
@@ -3845,7 +3845,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" s="0">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="K19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="0">
-        <v>0</v>
+        <v>0.56991612803762381</v>
       </c>
       <c r="M19" s="0">
         <v>0</v>
@@ -3899,13 +3899,13 @@
         <v>0</v>
       </c>
       <c r="V19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19" s="0">
         <v>0</v>
       </c>
       <c r="X19" s="0">
-        <v>0</v>
+        <v>0.8119612996713983</v>
       </c>
       <c r="Y19" s="0">
         <v>0</v>
@@ -3938,10 +3938,10 @@
         <v>0</v>
       </c>
       <c r="AI19" s="0">
-        <v>0</v>
+        <v>0.97514269127985598</v>
       </c>
       <c r="AJ19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK19" s="0">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="AT19" s="0">
-        <v>0</v>
+        <v>0.8940116120434638</v>
       </c>
       <c r="AU19" s="0">
         <v>0</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="BJ19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK19" s="0">
         <v>0</v>
@@ -4093,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20" s="0">
         <v>0</v>
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="V20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="AE20" s="0">
-        <v>0</v>
+        <v>0.5114523634885022</v>
       </c>
       <c r="AF20" s="0">
         <v>0</v>
@@ -4165,7 +4165,7 @@
         <v>0</v>
       </c>
       <c r="AP20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ20" s="0">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="AU20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV20" s="0">
         <v>0</v>
@@ -4213,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="BF20" s="0">
-        <v>0</v>
+        <v>0.89378957919870994</v>
       </c>
       <c r="BG20" s="0">
         <v>0</v>
@@ -4293,7 +4293,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="0">
         <v>0</v>
@@ -4311,10 +4311,10 @@
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>0</v>
+        <v>0.90427859290927359</v>
       </c>
       <c r="W21" s="0">
-        <v>1</v>
+        <v>0.87619450591781711</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4362,7 +4362,7 @@
         <v>0</v>
       </c>
       <c r="AM21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN21" s="0">
         <v>0</v>
@@ -4371,7 +4371,7 @@
         <v>0</v>
       </c>
       <c r="AP21" s="0">
-        <v>0</v>
+        <v>0.5409160056493465</v>
       </c>
       <c r="AQ21" s="0">
         <v>0</v>
@@ -4440,7 +4440,7 @@
         <v>0</v>
       </c>
       <c r="BM21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="0">
         <v>0</v>
@@ -4454,7 +4454,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0</v>
+        <v>0.51613194226861003</v>
       </c>
       <c r="B22" s="0">
         <v>0</v>
@@ -4508,19 +4508,19 @@
         <v>0</v>
       </c>
       <c r="S22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" s="0">
-        <v>0</v>
+        <v>0.59137270217773796</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X22" s="0">
         <v>0</v>
@@ -4538,7 +4538,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="0">
-        <v>0</v>
+        <v>0.86010422364683237</v>
       </c>
       <c r="AD22" s="0">
         <v>0</v>
@@ -4568,7 +4568,7 @@
         <v>0</v>
       </c>
       <c r="AM22" s="0">
-        <v>0</v>
+        <v>0.89200856348343094</v>
       </c>
       <c r="AN22" s="0">
         <v>0</v>
@@ -4595,7 +4595,7 @@
         <v>0</v>
       </c>
       <c r="AV22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW22" s="0">
         <v>0</v>
@@ -4684,7 +4684,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="0">
-        <v>0</v>
+        <v>0.80489526705039949</v>
       </c>
       <c r="J23" s="0">
         <v>0</v>
@@ -4711,7 +4711,7 @@
         <v>0</v>
       </c>
       <c r="R23" s="0">
-        <v>0</v>
+        <v>0.58291196138478629</v>
       </c>
       <c r="S23" s="0">
         <v>0</v>
@@ -4720,10 +4720,10 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>1</v>
+        <v>0.5024954316574608</v>
       </c>
       <c r="V23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
@@ -4816,7 +4816,7 @@
         <v>0</v>
       </c>
       <c r="BA23" s="0">
-        <v>0</v>
+        <v>0.77731012350181805</v>
       </c>
       <c r="BB23" s="0">
         <v>0</v>
@@ -4825,7 +4825,7 @@
         <v>0</v>
       </c>
       <c r="BD23" s="0">
-        <v>1</v>
+        <v>0.78753049626120741</v>
       </c>
       <c r="BE23" s="0">
         <v>0</v>
@@ -4878,7 +4878,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="0">
         <v>0</v>
@@ -4914,13 +4914,13 @@
         <v>0</v>
       </c>
       <c r="Q24" s="0">
-        <v>0</v>
+        <v>0.7044366883096248</v>
       </c>
       <c r="R24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S24" s="0">
-        <v>0</v>
+        <v>0.97717770691789552</v>
       </c>
       <c r="T24" s="0">
         <v>0</v>
@@ -4938,7 +4938,7 @@
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>0</v>
+        <v>0.72976770516646172</v>
       </c>
       <c r="Z24" s="0">
         <v>0</v>
@@ -4968,7 +4968,7 @@
         <v>0</v>
       </c>
       <c r="AI24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="0">
         <v>0</v>
@@ -4992,7 +4992,7 @@
         <v>0</v>
       </c>
       <c r="AQ24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR24" s="0">
         <v>0</v>
@@ -5084,7 +5084,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="0">
         <v>0</v>
@@ -5114,7 +5114,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="0">
-        <v>0</v>
+        <v>0.59198851487279636</v>
       </c>
       <c r="P25" s="0">
         <v>0</v>
@@ -5141,7 +5141,7 @@
         <v>0</v>
       </c>
       <c r="X25" s="0">
-        <v>0</v>
+        <v>0.71103930464019582</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
@@ -5150,10 +5150,10 @@
         <v>0</v>
       </c>
       <c r="AA25" s="0">
-        <v>0</v>
+        <v>0.89448417514368939</v>
       </c>
       <c r="AB25" s="0">
-        <v>1</v>
+        <v>0.94525656310324668</v>
       </c>
       <c r="AC25" s="0">
         <v>0</v>
@@ -5198,7 +5198,7 @@
         <v>0</v>
       </c>
       <c r="AQ25" s="0">
-        <v>0</v>
+        <v>0.86757902829109246</v>
       </c>
       <c r="AR25" s="0">
         <v>0</v>
@@ -5216,7 +5216,7 @@
         <v>0</v>
       </c>
       <c r="AW25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX25" s="0">
         <v>0</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="BG25" s="0">
-        <v>0</v>
+        <v>0.992163285324001</v>
       </c>
       <c r="BH25" s="0">
         <v>0</v>
@@ -5255,7 +5255,7 @@
         <v>0</v>
       </c>
       <c r="BJ25" s="0">
-        <v>0</v>
+        <v>0.87764539957558529</v>
       </c>
       <c r="BK25" s="0">
         <v>0</v>
@@ -5305,7 +5305,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="0">
-        <v>0</v>
+        <v>0.86264735148906047</v>
       </c>
       <c r="K26" s="0">
         <v>0</v>
@@ -5317,7 +5317,7 @@
         <v>0</v>
       </c>
       <c r="N26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" s="0">
         <v>0</v>
@@ -5356,7 +5356,7 @@
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB26" s="0">
         <v>0</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="AK26" s="0">
-        <v>0</v>
+        <v>0.99717629918109019</v>
       </c>
       <c r="AL26" s="0">
         <v>0</v>
@@ -5440,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="BC26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="0">
         <v>0</v>
@@ -5473,10 +5473,10 @@
         <v>0</v>
       </c>
       <c r="BN26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP26" s="0">
         <v>0</v>
@@ -5484,7 +5484,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B27" s="0">
         <v>0</v>
@@ -5499,7 +5499,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="0">
-        <v>0</v>
+        <v>0.71479081323077209</v>
       </c>
       <c r="G27" s="0">
         <v>0</v>
@@ -5532,7 +5532,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R27" s="0">
         <v>0</v>
@@ -5556,10 +5556,10 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>0</v>
+        <v>0.97649764201651856</v>
       </c>
       <c r="Z27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
@@ -5568,7 +5568,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="0">
-        <v>0</v>
+        <v>0.56422676059397692</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5616,7 +5616,7 @@
         <v>0</v>
       </c>
       <c r="AS27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT27" s="0">
         <v>0</v>
@@ -5652,7 +5652,7 @@
         <v>0</v>
       </c>
       <c r="BE27" s="0">
-        <v>0</v>
+        <v>0.60836298418436185</v>
       </c>
       <c r="BF27" s="0">
         <v>0</v>
@@ -5670,7 +5670,7 @@
         <v>0</v>
       </c>
       <c r="BK27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL27" s="0">
         <v>0</v>
@@ -5714,7 +5714,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="0">
-        <v>0</v>
+        <v>0.96277857386643229</v>
       </c>
       <c r="J28" s="0">
         <v>0</v>
@@ -5762,7 +5762,7 @@
         <v>0</v>
       </c>
       <c r="Y28" s="0">
-        <v>1</v>
+        <v>0.99918441012048143</v>
       </c>
       <c r="Z28" s="0">
         <v>0</v>
@@ -5777,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="AD28" s="0">
-        <v>0</v>
+        <v>0.77711626676647072</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5804,7 +5804,7 @@
         <v>0</v>
       </c>
       <c r="AM28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN28" s="0">
         <v>0</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="BA28" s="0">
-        <v>0</v>
+        <v>0.67010220896548855</v>
       </c>
       <c r="BB28" s="0">
         <v>0</v>
@@ -5861,7 +5861,7 @@
         <v>0</v>
       </c>
       <c r="BF28" s="0">
-        <v>0</v>
+        <v>0.50836993950076947</v>
       </c>
       <c r="BG28" s="0">
         <v>0</v>
@@ -5879,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="BL28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM28" s="0">
         <v>0</v>
@@ -5888,7 +5888,7 @@
         <v>0</v>
       </c>
       <c r="BO28" s="0">
-        <v>0</v>
+        <v>0.83359047279062537</v>
       </c>
       <c r="BP28" s="0">
         <v>0</v>
@@ -5914,7 +5914,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="0">
-        <v>0</v>
+        <v>0.68249276199749853</v>
       </c>
       <c r="H29" s="0">
         <v>0</v>
@@ -5959,7 +5959,7 @@
         <v>0</v>
       </c>
       <c r="V29" s="0">
-        <v>0</v>
+        <v>0.66156647354261844</v>
       </c>
       <c r="W29" s="0">
         <v>0</v>
@@ -5974,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>0</v>
+        <v>0.65635787847615545</v>
       </c>
       <c r="AB29" s="0">
         <v>0</v>
@@ -6028,10 +6028,10 @@
         <v>0</v>
       </c>
       <c r="AS29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT29" s="0">
-        <v>0</v>
+        <v>0.77223934980516806</v>
       </c>
       <c r="AU29" s="0">
         <v>0</v>
@@ -6058,7 +6058,7 @@
         <v>0</v>
       </c>
       <c r="BC29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD29" s="0">
         <v>0</v>
@@ -6076,7 +6076,7 @@
         <v>0</v>
       </c>
       <c r="BI29" s="0">
-        <v>0</v>
+        <v>0.60298189972815819</v>
       </c>
       <c r="BJ29" s="0">
         <v>0</v>
@@ -6183,7 +6183,7 @@
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>0</v>
+        <v>0.63497757903884366</v>
       </c>
       <c r="AC30" s="0">
         <v>0</v>
@@ -6195,7 +6195,7 @@
         <v>0</v>
       </c>
       <c r="AF30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6234,7 +6234,7 @@
         <v>0</v>
       </c>
       <c r="AS30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT30" s="0">
         <v>0</v>
@@ -6270,7 +6270,7 @@
         <v>0</v>
       </c>
       <c r="BE30" s="0">
-        <v>0</v>
+        <v>0.72940766941484148</v>
       </c>
       <c r="BF30" s="0">
         <v>0</v>
@@ -6282,13 +6282,13 @@
         <v>0</v>
       </c>
       <c r="BI30" s="0">
-        <v>0</v>
+        <v>0.80979957689869619</v>
       </c>
       <c r="BJ30" s="0">
         <v>0</v>
       </c>
       <c r="BK30" s="0">
-        <v>0</v>
+        <v>0.81975278965923715</v>
       </c>
       <c r="BL30" s="0">
         <v>0</v>
@@ -6300,7 +6300,7 @@
         <v>0</v>
       </c>
       <c r="BO30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP30" s="0">
         <v>0</v>
@@ -6365,7 +6365,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="0">
-        <v>0</v>
+        <v>0.83379553959916441</v>
       </c>
       <c r="U31" s="0">
         <v>0</v>
@@ -6401,7 +6401,7 @@
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>0</v>
+        <v>0.95969913202937085</v>
       </c>
       <c r="AG31" s="0">
         <v>0</v>
@@ -6413,7 +6413,7 @@
         <v>0</v>
       </c>
       <c r="AJ31" s="0">
-        <v>0</v>
+        <v>0.75382681477214608</v>
       </c>
       <c r="AK31" s="0">
         <v>0</v>
@@ -6449,10 +6449,10 @@
         <v>0</v>
       </c>
       <c r="AV31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW31" s="0">
-        <v>0</v>
+        <v>0.80563733629093282</v>
       </c>
       <c r="AX31" s="0">
         <v>0</v>
@@ -6491,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="BJ31" s="0">
-        <v>0</v>
+        <v>0.74321617960956776</v>
       </c>
       <c r="BK31" s="0">
         <v>0</v>
@@ -6506,7 +6506,7 @@
         <v>0</v>
       </c>
       <c r="BO31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP31" s="0">
         <v>0</v>
@@ -6532,7 +6532,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" s="0">
         <v>0</v>
@@ -6553,7 +6553,7 @@
         <v>0</v>
       </c>
       <c r="N32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" s="0">
         <v>0</v>
@@ -6601,22 +6601,22 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE32" s="0">
-        <v>0</v>
+        <v>0.91681558161723142</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH32" s="0">
-        <v>0</v>
+        <v>0.50543271271311996</v>
       </c>
       <c r="AI32" s="0">
-        <v>0</v>
+        <v>0.88421780279177176</v>
       </c>
       <c r="AJ32" s="0">
         <v>0</v>
@@ -6661,7 +6661,7 @@
         <v>0</v>
       </c>
       <c r="AX32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY32" s="0">
         <v>0</v>
@@ -6735,7 +6735,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="0">
-        <v>0</v>
+        <v>0.62033782733448062</v>
       </c>
       <c r="G33" s="0">
         <v>0</v>
@@ -6744,10 +6744,10 @@
         <v>0</v>
       </c>
       <c r="I33" s="0">
-        <v>1</v>
+        <v>0.8503417935309161</v>
       </c>
       <c r="J33" s="0">
-        <v>0</v>
+        <v>0.5363306019700389</v>
       </c>
       <c r="K33" s="0">
         <v>0</v>
@@ -6813,7 +6813,7 @@
         <v>0</v>
       </c>
       <c r="AF33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
@@ -6879,7 +6879,7 @@
         <v>0</v>
       </c>
       <c r="BB33" s="0">
-        <v>0</v>
+        <v>0.63979306885332443</v>
       </c>
       <c r="BC33" s="0">
         <v>0</v>
@@ -6909,7 +6909,7 @@
         <v>0</v>
       </c>
       <c r="BL33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM33" s="0">
         <v>0</v>
@@ -6938,7 +6938,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="0">
-        <v>0</v>
+        <v>0.93595086010146633</v>
       </c>
       <c r="F34" s="0">
         <v>0</v>
@@ -6947,7 +6947,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" s="0">
         <v>0</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>0</v>
+        <v>0.79096188672068679</v>
       </c>
       <c r="AG34" s="0">
         <v>0</v>
@@ -7052,7 +7052,7 @@
         <v>0</v>
       </c>
       <c r="AQ34" s="0">
-        <v>0</v>
+        <v>0.5195186854370708</v>
       </c>
       <c r="AR34" s="0">
         <v>0</v>
@@ -7073,7 +7073,7 @@
         <v>0</v>
       </c>
       <c r="AX34" s="0">
-        <v>0</v>
+        <v>0.80834180939201683</v>
       </c>
       <c r="AY34" s="0">
         <v>0</v>
@@ -7094,7 +7094,7 @@
         <v>0</v>
       </c>
       <c r="BE34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF34" s="0">
         <v>0</v>
@@ -7115,7 +7115,7 @@
         <v>0</v>
       </c>
       <c r="BL34" s="0">
-        <v>0</v>
+        <v>0.95803003662958919</v>
       </c>
       <c r="BM34" s="0">
         <v>0</v>
@@ -7127,7 +7127,7 @@
         <v>0</v>
       </c>
       <c r="BP34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -7135,7 +7135,7 @@
         <v>0</v>
       </c>
       <c r="B35" s="0">
-        <v>0</v>
+        <v>0.5918001003090454</v>
       </c>
       <c r="C35" s="0">
         <v>0</v>
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="N35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O35" s="0">
         <v>0</v>
@@ -7186,7 +7186,7 @@
         <v>0</v>
       </c>
       <c r="S35" s="0">
-        <v>0</v>
+        <v>0.89881753562172462</v>
       </c>
       <c r="T35" s="0">
         <v>0</v>
@@ -7201,7 +7201,7 @@
         <v>0</v>
       </c>
       <c r="X35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="0">
         <v>0</v>
@@ -7225,7 +7225,7 @@
         <v>0</v>
       </c>
       <c r="AF35" s="0">
-        <v>0</v>
+        <v>0.83475571869562049</v>
       </c>
       <c r="AG35" s="0">
         <v>0</v>
@@ -7252,7 +7252,7 @@
         <v>0</v>
       </c>
       <c r="AO35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP35" s="0">
         <v>0</v>
@@ -7288,7 +7288,7 @@
         <v>0</v>
       </c>
       <c r="BA35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB35" s="0">
         <v>0</v>
@@ -7303,7 +7303,7 @@
         <v>0</v>
       </c>
       <c r="BF35" s="0">
-        <v>0</v>
+        <v>0.72168614392758557</v>
       </c>
       <c r="BG35" s="0">
         <v>0</v>
@@ -7315,13 +7315,13 @@
         <v>0</v>
       </c>
       <c r="BJ35" s="0">
-        <v>0</v>
+        <v>0.94054225205679409</v>
       </c>
       <c r="BK35" s="0">
         <v>0</v>
       </c>
       <c r="BL35" s="0">
-        <v>0</v>
+        <v>0.59189915978933949</v>
       </c>
       <c r="BM35" s="0">
         <v>0</v>
@@ -7344,7 +7344,7 @@
         <v>0</v>
       </c>
       <c r="C36" s="0">
-        <v>0</v>
+        <v>0.5467673486658341</v>
       </c>
       <c r="D36" s="0">
         <v>0</v>
@@ -7368,7 +7368,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="0">
-        <v>0</v>
+        <v>0.9313776545875061</v>
       </c>
       <c r="L36" s="0">
         <v>0</v>
@@ -7380,7 +7380,7 @@
         <v>0</v>
       </c>
       <c r="O36" s="0">
-        <v>0</v>
+        <v>0.97336048810116094</v>
       </c>
       <c r="P36" s="0">
         <v>0</v>
@@ -7392,7 +7392,7 @@
         <v>0</v>
       </c>
       <c r="S36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T36" s="0">
         <v>0</v>
@@ -7428,7 +7428,7 @@
         <v>0</v>
       </c>
       <c r="AE36" s="0">
-        <v>0</v>
+        <v>0.6354491948938622</v>
       </c>
       <c r="AF36" s="0">
         <v>0</v>
@@ -7449,7 +7449,7 @@
         <v>0</v>
       </c>
       <c r="AL36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7470,7 +7470,7 @@
         <v>0</v>
       </c>
       <c r="AS36" s="0">
-        <v>0</v>
+        <v>0.75131449537792416</v>
       </c>
       <c r="AT36" s="0">
         <v>0</v>
@@ -7485,7 +7485,7 @@
         <v>0</v>
       </c>
       <c r="AX36" s="0">
-        <v>0</v>
+        <v>0.87696703912307428</v>
       </c>
       <c r="AY36" s="0">
         <v>0</v>
@@ -7506,7 +7506,7 @@
         <v>0</v>
       </c>
       <c r="BE36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF36" s="0">
         <v>0</v>
@@ -7556,7 +7556,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="0">
-        <v>1</v>
+        <v>0.71146503553873597</v>
       </c>
       <c r="F37" s="0">
         <v>0</v>
@@ -7565,7 +7565,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="0">
-        <v>0</v>
+        <v>0.61795534258106066</v>
       </c>
       <c r="I37" s="0">
         <v>0</v>
@@ -7574,7 +7574,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37" s="0">
         <v>0</v>
@@ -7619,7 +7619,7 @@
         <v>0</v>
       </c>
       <c r="Z37" s="0">
-        <v>0</v>
+        <v>0.85744720175202471</v>
       </c>
       <c r="AA37" s="0">
         <v>0</v>
@@ -7655,7 +7655,7 @@
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM37" s="0">
         <v>0</v>
@@ -7700,13 +7700,13 @@
         <v>0</v>
       </c>
       <c r="BA37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB37" s="0">
         <v>0</v>
       </c>
       <c r="BC37" s="0">
-        <v>0</v>
+        <v>0.83585480261590284</v>
       </c>
       <c r="BD37" s="0">
         <v>0</v>
@@ -7780,7 +7780,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="0">
-        <v>0</v>
+        <v>0.52382786522975178</v>
       </c>
       <c r="L38" s="0">
         <v>0</v>
@@ -7792,7 +7792,7 @@
         <v>0</v>
       </c>
       <c r="O38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P38" s="0">
         <v>0</v>
@@ -7855,10 +7855,10 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="AV38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW38" s="0">
         <v>0</v>
@@ -7921,10 +7921,10 @@
         <v>0</v>
       </c>
       <c r="BF38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH38" s="0">
         <v>0</v>
@@ -7942,7 +7942,7 @@
         <v>0</v>
       </c>
       <c r="BM38" s="0">
-        <v>0</v>
+        <v>0.82398544307085286</v>
       </c>
       <c r="BN38" s="0">
         <v>0</v>
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="BP38" s="0">
-        <v>0</v>
+        <v>0.54679564667734248</v>
       </c>
     </row>
     <row r="39">
@@ -7995,7 +7995,7 @@
         <v>0</v>
       </c>
       <c r="N39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O39" s="0">
         <v>0</v>
@@ -8016,10 +8016,10 @@
         <v>0</v>
       </c>
       <c r="U39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V39" s="0">
-        <v>0</v>
+        <v>0.73761117686910227</v>
       </c>
       <c r="W39" s="0">
         <v>0</v>
@@ -8037,7 +8037,7 @@
         <v>0</v>
       </c>
       <c r="AB39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC39" s="0">
         <v>0</v>
@@ -8082,13 +8082,13 @@
         <v>0</v>
       </c>
       <c r="AQ39" s="0">
-        <v>0</v>
+        <v>0.66299708918992328</v>
       </c>
       <c r="AR39" s="0">
         <v>0</v>
       </c>
       <c r="AS39" s="0">
-        <v>0</v>
+        <v>0.97153703105434497</v>
       </c>
       <c r="AT39" s="0">
         <v>0</v>
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="BN39" s="0">
-        <v>0</v>
+        <v>0.81685571236564269</v>
       </c>
       <c r="BO39" s="0">
         <v>0</v>
@@ -8177,10 +8177,10 @@
         <v>0</v>
       </c>
       <c r="F40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" s="0">
         <v>0</v>
@@ -8285,7 +8285,7 @@
         <v>0</v>
       </c>
       <c r="AP40" s="0">
-        <v>0</v>
+        <v>0.70346139729897428</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8309,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="AX40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY40" s="0">
         <v>0</v>
@@ -8354,7 +8354,7 @@
         <v>0</v>
       </c>
       <c r="BM40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN40" s="0">
         <v>0</v>
@@ -8363,7 +8363,7 @@
         <v>0</v>
       </c>
       <c r="BP40" s="0">
-        <v>0</v>
+        <v>0.63944989176706579</v>
       </c>
     </row>
     <row r="41">
@@ -8410,7 +8410,7 @@
         <v>0</v>
       </c>
       <c r="O41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P41" s="0">
         <v>0</v>
@@ -8470,7 +8470,7 @@
         <v>0</v>
       </c>
       <c r="AI41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ41" s="0">
         <v>0</v>
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>0</v>
+        <v>0.87352771292797327</v>
       </c>
       <c r="AQ41" s="0">
         <v>0</v>
@@ -8503,7 +8503,7 @@
         <v>0</v>
       </c>
       <c r="AT41" s="0">
-        <v>0</v>
+        <v>0.52825983422924461</v>
       </c>
       <c r="AU41" s="0">
         <v>0</v>
@@ -8515,7 +8515,7 @@
         <v>0</v>
       </c>
       <c r="AX41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY41" s="0">
         <v>0</v>
@@ -8533,7 +8533,7 @@
         <v>0</v>
       </c>
       <c r="BD41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE41" s="0">
         <v>0</v>
@@ -8548,7 +8548,7 @@
         <v>0</v>
       </c>
       <c r="BI41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ41" s="0">
         <v>0</v>
@@ -8583,7 +8583,7 @@
         <v>0</v>
       </c>
       <c r="D42" s="0">
-        <v>0</v>
+        <v>0.7109788474300871</v>
       </c>
       <c r="E42" s="0">
         <v>0</v>
@@ -8631,10 +8631,10 @@
         <v>0</v>
       </c>
       <c r="T42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U42" s="0">
-        <v>0</v>
+        <v>0.81399618978421917</v>
       </c>
       <c r="V42" s="0">
         <v>0</v>
@@ -8691,10 +8691,10 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>0</v>
+        <v>0.99034296451004589</v>
       </c>
       <c r="AO42" s="0">
-        <v>0</v>
+        <v>0.63896156107610858</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
@@ -8736,7 +8736,7 @@
         <v>0</v>
       </c>
       <c r="BC42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD42" s="0">
         <v>0</v>
@@ -8849,10 +8849,10 @@
         <v>0</v>
       </c>
       <c r="X43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y43" s="0">
-        <v>0</v>
+        <v>0.60709884469109654</v>
       </c>
       <c r="Z43" s="0">
         <v>0</v>
@@ -8879,7 +8879,7 @@
         <v>0</v>
       </c>
       <c r="AH43" s="0">
-        <v>0</v>
+        <v>0.80041705670646457</v>
       </c>
       <c r="AI43" s="0">
         <v>0</v>
@@ -8894,7 +8894,7 @@
         <v>0</v>
       </c>
       <c r="AM43" s="0">
-        <v>0</v>
+        <v>0.84535009038917353</v>
       </c>
       <c r="AN43" s="0">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>0</v>
       </c>
       <c r="AY43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ43" s="0">
         <v>0</v>
@@ -9022,7 +9022,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N44" s="0">
         <v>0</v>
@@ -9118,7 +9118,7 @@
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>1</v>
+        <v>0.8438823650912477</v>
       </c>
       <c r="AT44" s="0">
         <v>0</v>
@@ -9157,10 +9157,10 @@
         <v>0</v>
       </c>
       <c r="BF44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG44" s="0">
-        <v>0</v>
+        <v>0.75460856897221618</v>
       </c>
       <c r="BH44" s="0">
         <v>0</v>
@@ -9184,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="BO44" s="0">
-        <v>0</v>
+        <v>0.70418845946411701</v>
       </c>
       <c r="BP44" s="0">
         <v>0</v>
@@ -9201,7 +9201,7 @@
         <v>0</v>
       </c>
       <c r="D45" s="0">
-        <v>0</v>
+        <v>0.52457661641062647</v>
       </c>
       <c r="E45" s="0">
         <v>0</v>
@@ -9210,7 +9210,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="0">
-        <v>0</v>
+        <v>0.50505815464600867</v>
       </c>
       <c r="H45" s="0">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>0</v>
       </c>
       <c r="Q45" s="0">
-        <v>0</v>
+        <v>0.6259348959222808</v>
       </c>
       <c r="R45" s="0">
         <v>0</v>
@@ -9270,16 +9270,16 @@
         <v>0</v>
       </c>
       <c r="AA45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB45" s="0">
         <v>0</v>
       </c>
       <c r="AC45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE45" s="0">
         <v>0</v>
@@ -9297,7 +9297,7 @@
         <v>0</v>
       </c>
       <c r="AJ45" s="0">
-        <v>0</v>
+        <v>0.5556891327962209</v>
       </c>
       <c r="AK45" s="0">
         <v>0</v>
@@ -9306,7 +9306,7 @@
         <v>0</v>
       </c>
       <c r="AM45" s="0">
-        <v>0</v>
+        <v>0.82391176105228636</v>
       </c>
       <c r="AN45" s="0">
         <v>0</v>
@@ -9321,13 +9321,13 @@
         <v>0</v>
       </c>
       <c r="AR45" s="0">
-        <v>1</v>
+        <v>0.57146667978314758</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU45" s="0">
         <v>0</v>
@@ -9378,10 +9378,10 @@
         <v>0</v>
       </c>
       <c r="BK45" s="0">
-        <v>0</v>
+        <v>0.65089567040622387</v>
       </c>
       <c r="BL45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM45" s="0">
         <v>0</v>
@@ -9398,7 +9398,7 @@
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>0</v>
+        <v>0.93315379641500629</v>
       </c>
       <c r="B46" s="0">
         <v>0</v>
@@ -9434,7 +9434,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="0">
-        <v>0</v>
+        <v>0.92648604230092846</v>
       </c>
       <c r="N46" s="0">
         <v>0</v>
@@ -9452,7 +9452,7 @@
         <v>0</v>
       </c>
       <c r="S46" s="0">
-        <v>0</v>
+        <v>0.92989868699075573</v>
       </c>
       <c r="T46" s="0">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="0">
-        <v>0</v>
+        <v>0.90724085519312014</v>
       </c>
       <c r="AD46" s="0">
         <v>0</v>
@@ -9518,7 +9518,7 @@
         <v>0</v>
       </c>
       <c r="AO46" s="0">
-        <v>0</v>
+        <v>0.89776082544933433</v>
       </c>
       <c r="AP46" s="0">
         <v>0</v>
@@ -9530,7 +9530,7 @@
         <v>0</v>
       </c>
       <c r="AS46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
@@ -9542,13 +9542,13 @@
         <v>0</v>
       </c>
       <c r="AW46" s="0">
-        <v>0</v>
+        <v>0.81243122068409557</v>
       </c>
       <c r="AX46" s="0">
         <v>0</v>
       </c>
       <c r="AY46" s="0">
-        <v>0</v>
+        <v>0.58134132529151783</v>
       </c>
       <c r="AZ46" s="0">
         <v>0</v>
@@ -9560,7 +9560,7 @@
         <v>0</v>
       </c>
       <c r="BC46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD46" s="0">
         <v>0</v>
@@ -9593,7 +9593,7 @@
         <v>0</v>
       </c>
       <c r="BN46" s="0">
-        <v>0</v>
+        <v>0.92968517183176147</v>
       </c>
       <c r="BO46" s="0">
         <v>0</v>
@@ -9604,7 +9604,7 @@
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>0</v>
+        <v>0.81466452395353195</v>
       </c>
       <c r="B47" s="0">
         <v>0</v>
@@ -9613,7 +9613,7 @@
         <v>0</v>
       </c>
       <c r="D47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" s="0">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="0">
-        <v>0</v>
+        <v>0.72707372887925348</v>
       </c>
       <c r="N47" s="0">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="T47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U47" s="0">
         <v>0</v>
@@ -9748,7 +9748,7 @@
         <v>0</v>
       </c>
       <c r="AW47" s="0">
-        <v>0</v>
+        <v>0.59764687271324957</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9775,7 +9775,7 @@
         <v>0</v>
       </c>
       <c r="BF47" s="0">
-        <v>0</v>
+        <v>0.78738857120264905</v>
       </c>
       <c r="BG47" s="0">
         <v>0</v>
@@ -9802,7 +9802,7 @@
         <v>0</v>
       </c>
       <c r="BO47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP47" s="0">
         <v>0</v>
@@ -9822,13 +9822,13 @@
         <v>0</v>
       </c>
       <c r="E48" s="0">
-        <v>0</v>
+        <v>0.88001196963837036</v>
       </c>
       <c r="F48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" s="0">
         <v>0</v>
@@ -9849,7 +9849,7 @@
         <v>0</v>
       </c>
       <c r="N48" s="0">
-        <v>0</v>
+        <v>0.68388292771940784</v>
       </c>
       <c r="O48" s="0">
         <v>0</v>
@@ -9873,7 +9873,7 @@
         <v>0</v>
       </c>
       <c r="V48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W48" s="0">
         <v>0</v>
@@ -9900,7 +9900,7 @@
         <v>0</v>
       </c>
       <c r="AE48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF48" s="0">
         <v>0</v>
@@ -9921,7 +9921,7 @@
         <v>0</v>
       </c>
       <c r="AL48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM48" s="0">
         <v>0</v>
@@ -9957,7 +9957,7 @@
         <v>0</v>
       </c>
       <c r="AX48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="BB48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC48" s="0">
         <v>0</v>
@@ -10088,7 +10088,7 @@
         <v>0</v>
       </c>
       <c r="Y49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z49" s="0">
         <v>0</v>
@@ -10106,7 +10106,7 @@
         <v>0</v>
       </c>
       <c r="AE49" s="0">
-        <v>0</v>
+        <v>0.86309603444615224</v>
       </c>
       <c r="AF49" s="0">
         <v>0</v>
@@ -10151,10 +10151,10 @@
         <v>0</v>
       </c>
       <c r="AT49" s="0">
-        <v>0</v>
+        <v>0.72088898958739489</v>
       </c>
       <c r="AU49" s="0">
-        <v>0</v>
+        <v>0.66793721119117233</v>
       </c>
       <c r="AV49" s="0">
         <v>0</v>
@@ -10184,7 +10184,7 @@
         <v>0</v>
       </c>
       <c r="BE49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF49" s="0">
         <v>0</v>
@@ -10205,10 +10205,10 @@
         <v>0</v>
       </c>
       <c r="BL49" s="0">
-        <v>0</v>
+        <v>0.86193520432153448</v>
       </c>
       <c r="BM49" s="0">
-        <v>0</v>
+        <v>0.85082300350660622</v>
       </c>
       <c r="BN49" s="0">
         <v>0</v>
@@ -10315,19 +10315,19 @@
         <v>0</v>
       </c>
       <c r="AF50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG50" s="0">
         <v>0</v>
       </c>
       <c r="AH50" s="0">
-        <v>0</v>
+        <v>0.88752559278895771</v>
       </c>
       <c r="AI50" s="0">
         <v>0</v>
       </c>
       <c r="AJ50" s="0">
-        <v>0</v>
+        <v>0.58506425660509453</v>
       </c>
       <c r="AK50" s="0">
         <v>0</v>
@@ -10339,10 +10339,10 @@
         <v>0</v>
       </c>
       <c r="AN50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP50" s="0">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW50" s="0">
         <v>0</v>
@@ -10396,7 +10396,7 @@
         <v>0</v>
       </c>
       <c r="BG50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH50" s="0">
         <v>0</v>
@@ -10452,13 +10452,13 @@
         <v>0</v>
       </c>
       <c r="I51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" s="0">
         <v>0</v>
       </c>
       <c r="K51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51" s="0">
         <v>0</v>
@@ -10473,7 +10473,7 @@
         <v>0</v>
       </c>
       <c r="P51" s="0">
-        <v>0</v>
+        <v>0.88668762071981533</v>
       </c>
       <c r="Q51" s="0">
         <v>0</v>
@@ -10554,7 +10554,7 @@
         <v>0</v>
       </c>
       <c r="AQ51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR51" s="0">
         <v>0</v>
@@ -10563,7 +10563,7 @@
         <v>0</v>
       </c>
       <c r="AT51" s="0">
-        <v>0</v>
+        <v>0.5121013321912028</v>
       </c>
       <c r="AU51" s="0">
         <v>0</v>
@@ -10581,10 +10581,10 @@
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>0</v>
+        <v>0.577040941558711</v>
       </c>
       <c r="BA51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10643,7 +10643,7 @@
         <v>0</v>
       </c>
       <c r="D52" s="0">
-        <v>0</v>
+        <v>0.555848455086277</v>
       </c>
       <c r="E52" s="0">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="0">
-        <v>0</v>
+        <v>0.68383288561057776</v>
       </c>
       <c r="K52" s="0">
         <v>0</v>
@@ -10670,10 +10670,10 @@
         <v>0</v>
       </c>
       <c r="M52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N52" s="0">
-        <v>0</v>
+        <v>0.99706475009938433</v>
       </c>
       <c r="O52" s="0">
         <v>0</v>
@@ -10784,22 +10784,22 @@
         <v>0</v>
       </c>
       <c r="AY52" s="0">
-        <v>0</v>
+        <v>0.85827652678277011</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC52" s="0">
         <v>0</v>
       </c>
       <c r="BD52" s="0">
-        <v>0</v>
+        <v>0.59681962392070176</v>
       </c>
       <c r="BE52" s="0">
         <v>0</v>
@@ -10906,7 +10906,7 @@
         <v>0</v>
       </c>
       <c r="W53" s="0">
-        <v>0</v>
+        <v>0.70076598642638754</v>
       </c>
       <c r="X53" s="0">
         <v>0</v>
@@ -10921,7 +10921,7 @@
         <v>0</v>
       </c>
       <c r="AB53" s="0">
-        <v>0</v>
+        <v>0.88520658145101794</v>
       </c>
       <c r="AC53" s="0">
         <v>0</v>
@@ -10942,13 +10942,13 @@
         <v>0</v>
       </c>
       <c r="AI53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ53" s="0">
         <v>0</v>
       </c>
       <c r="AK53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL53" s="0">
         <v>0</v>
@@ -10990,10 +10990,10 @@
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
@@ -11008,7 +11008,7 @@
         <v>0</v>
       </c>
       <c r="BE53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF53" s="0">
         <v>0</v>
@@ -11052,10 +11052,10 @@
         <v>0</v>
       </c>
       <c r="C54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54" s="0">
         <v>0</v>
@@ -11142,7 +11142,7 @@
         <v>0</v>
       </c>
       <c r="AG54" s="0">
-        <v>0</v>
+        <v>0.79190632067812539</v>
       </c>
       <c r="AH54" s="0">
         <v>0</v>
@@ -11187,7 +11187,7 @@
         <v>0</v>
       </c>
       <c r="AV54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW54" s="0">
         <v>0</v>
@@ -11199,7 +11199,7 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA54" s="0">
         <v>0</v>
@@ -11208,7 +11208,7 @@
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>0</v>
+        <v>0.78929548155754636</v>
       </c>
       <c r="BD54" s="0">
         <v>0</v>
@@ -11285,7 +11285,7 @@
         <v>0</v>
       </c>
       <c r="L55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M55" s="0">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="R55" s="0">
-        <v>0</v>
+        <v>0.97546299933923375</v>
       </c>
       <c r="S55" s="0">
         <v>0</v>
@@ -11327,7 +11327,7 @@
         <v>0</v>
       </c>
       <c r="Z55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA55" s="0">
         <v>0</v>
@@ -11336,7 +11336,7 @@
         <v>0</v>
       </c>
       <c r="AC55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD55" s="0">
         <v>0</v>
@@ -11360,7 +11360,7 @@
         <v>0</v>
       </c>
       <c r="AK55" s="0">
-        <v>0</v>
+        <v>0.64741773587112339</v>
       </c>
       <c r="AL55" s="0">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>0</v>
       </c>
       <c r="AP55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ55" s="0">
         <v>0</v>
@@ -11387,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="AT55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU55" s="0">
         <v>0</v>
@@ -11411,7 +11411,7 @@
         <v>0</v>
       </c>
       <c r="BB55" s="0">
-        <v>0</v>
+        <v>0.59836511364056966</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
@@ -11423,7 +11423,7 @@
         <v>0</v>
       </c>
       <c r="BF55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG55" s="0">
         <v>0</v>
@@ -11485,7 +11485,7 @@
         <v>0</v>
       </c>
       <c r="J56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" s="0">
         <v>0</v>
@@ -11524,7 +11524,7 @@
         <v>0</v>
       </c>
       <c r="W56" s="0">
-        <v>1</v>
+        <v>0.50706100422197276</v>
       </c>
       <c r="X56" s="0">
         <v>0</v>
@@ -11578,7 +11578,7 @@
         <v>0</v>
       </c>
       <c r="AO56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP56" s="0">
         <v>0</v>
@@ -11611,7 +11611,7 @@
         <v>0</v>
       </c>
       <c r="AZ56" s="0">
-        <v>0</v>
+        <v>0.78182369395827256</v>
       </c>
       <c r="BA56" s="0">
         <v>0</v>
@@ -11626,7 +11626,7 @@
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>1</v>
+        <v>0.95479389831541295</v>
       </c>
       <c r="BF56" s="0">
         <v>0</v>
@@ -11679,7 +11679,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="0">
-        <v>0</v>
+        <v>0.74892190026051764</v>
       </c>
       <c r="G57" s="0">
         <v>0</v>
@@ -11742,7 +11742,7 @@
         <v>0</v>
       </c>
       <c r="AA57" s="0">
-        <v>0</v>
+        <v>0.96460672640317957</v>
       </c>
       <c r="AB57" s="0">
         <v>0</v>
@@ -11751,7 +11751,7 @@
         <v>0</v>
       </c>
       <c r="AD57" s="0">
-        <v>0</v>
+        <v>0.97123029264056426</v>
       </c>
       <c r="AE57" s="0">
         <v>0</v>
@@ -11763,13 +11763,13 @@
         <v>0</v>
       </c>
       <c r="AH57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI57" s="0">
         <v>0</v>
       </c>
       <c r="AJ57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK57" s="0">
         <v>0</v>
@@ -11808,7 +11808,7 @@
         <v>0</v>
       </c>
       <c r="AW57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX57" s="0">
         <v>0</v>
@@ -11820,7 +11820,7 @@
         <v>0</v>
       </c>
       <c r="BA57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB57" s="0">
         <v>0</v>
@@ -11829,7 +11829,7 @@
         <v>0</v>
       </c>
       <c r="BD57" s="0">
-        <v>1</v>
+        <v>0.8023576199977549</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
@@ -11838,7 +11838,7 @@
         <v>0</v>
       </c>
       <c r="BG57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -11847,7 +11847,7 @@
         <v>0</v>
       </c>
       <c r="BJ57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK57" s="0">
         <v>0</v>
@@ -11862,7 +11862,7 @@
         <v>0</v>
       </c>
       <c r="BO57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP57" s="0">
         <v>0</v>
@@ -11873,7 +11873,7 @@
         <v>0</v>
       </c>
       <c r="B58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" s="0">
         <v>0</v>
@@ -11891,7 +11891,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="0">
-        <v>0</v>
+        <v>0.83217380717642608</v>
       </c>
       <c r="I58" s="0">
         <v>0</v>
@@ -11903,13 +11903,13 @@
         <v>0</v>
       </c>
       <c r="L58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M58" s="0">
         <v>0</v>
       </c>
       <c r="N58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O58" s="0">
         <v>0</v>
@@ -11927,7 +11927,7 @@
         <v>0</v>
       </c>
       <c r="T58" s="0">
-        <v>0</v>
+        <v>0.61724672322662544</v>
       </c>
       <c r="U58" s="0">
         <v>0</v>
@@ -11951,7 +11951,7 @@
         <v>0</v>
       </c>
       <c r="AB58" s="0">
-        <v>0</v>
+        <v>0.57614644464440046</v>
       </c>
       <c r="AC58" s="0">
         <v>0</v>
@@ -11972,7 +11972,7 @@
         <v>0</v>
       </c>
       <c r="AI58" s="0">
-        <v>0</v>
+        <v>0.95766667694899599</v>
       </c>
       <c r="AJ58" s="0">
         <v>0</v>
@@ -11981,7 +11981,7 @@
         <v>0</v>
       </c>
       <c r="AL58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM58" s="0">
         <v>0</v>
@@ -11999,7 +11999,7 @@
         <v>0</v>
       </c>
       <c r="AR58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS58" s="0">
         <v>0</v>
@@ -12008,7 +12008,7 @@
         <v>0</v>
       </c>
       <c r="AU58" s="0">
-        <v>0</v>
+        <v>0.83490734396816513</v>
       </c>
       <c r="AV58" s="0">
         <v>0</v>
@@ -12032,7 +12032,7 @@
         <v>0</v>
       </c>
       <c r="BC58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD58" s="0">
         <v>0</v>
@@ -12082,7 +12082,7 @@
         <v>0</v>
       </c>
       <c r="C59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59" s="0">
         <v>0</v>
@@ -12148,7 +12148,7 @@
         <v>0</v>
       </c>
       <c r="Y59" s="0">
-        <v>0</v>
+        <v>0.88437667272715159</v>
       </c>
       <c r="Z59" s="0">
         <v>0</v>
@@ -12187,7 +12187,7 @@
         <v>0</v>
       </c>
       <c r="AL59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM59" s="0">
         <v>0</v>
@@ -12205,7 +12205,7 @@
         <v>0</v>
       </c>
       <c r="AR59" s="0">
-        <v>0</v>
+        <v>0.53444253875748227</v>
       </c>
       <c r="AS59" s="0">
         <v>0</v>
@@ -12223,7 +12223,7 @@
         <v>0</v>
       </c>
       <c r="AX59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY59" s="0">
         <v>0</v>
@@ -12244,7 +12244,7 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF59" s="0">
         <v>0</v>
@@ -12271,7 +12271,7 @@
         <v>0</v>
       </c>
       <c r="BN59" s="0">
-        <v>0</v>
+        <v>0.8931032742432008</v>
       </c>
       <c r="BO59" s="0">
         <v>0</v>
@@ -12300,7 +12300,7 @@
         <v>0</v>
       </c>
       <c r="G60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" s="0">
         <v>0</v>
@@ -12330,7 +12330,7 @@
         <v>0</v>
       </c>
       <c r="Q60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R60" s="0">
         <v>0</v>
@@ -12465,10 +12465,10 @@
         <v>0</v>
       </c>
       <c r="BJ60" s="0">
-        <v>0</v>
+        <v>0.55279307030850711</v>
       </c>
       <c r="BK60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL60" s="0">
         <v>0</v>
@@ -12477,13 +12477,13 @@
         <v>0</v>
       </c>
       <c r="BN60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO60" s="0">
         <v>0</v>
       </c>
       <c r="BP60" s="0">
-        <v>0</v>
+        <v>0.84397365843328831</v>
       </c>
     </row>
     <row r="61">
@@ -12509,7 +12509,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" s="0">
         <v>0</v>
@@ -12572,10 +12572,10 @@
         <v>0</v>
       </c>
       <c r="AC61" s="0">
-        <v>0</v>
+        <v>0.64489111494402662</v>
       </c>
       <c r="AD61" s="0">
-        <v>0</v>
+        <v>0.74802643820081793</v>
       </c>
       <c r="AE61" s="0">
         <v>0</v>
@@ -12608,7 +12608,7 @@
         <v>0</v>
       </c>
       <c r="AO61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP61" s="0">
         <v>0</v>
@@ -12686,7 +12686,7 @@
         <v>0</v>
       </c>
       <c r="BO61" s="0">
-        <v>0</v>
+        <v>0.57937326199321437</v>
       </c>
       <c r="BP61" s="0">
         <v>0</v>
@@ -12718,10 +12718,10 @@
         <v>0</v>
       </c>
       <c r="I62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62" s="0">
         <v>0</v>
@@ -12736,7 +12736,7 @@
         <v>0</v>
       </c>
       <c r="O62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P62" s="0">
         <v>0</v>
@@ -12748,7 +12748,7 @@
         <v>0</v>
       </c>
       <c r="S62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T62" s="0">
         <v>0</v>
@@ -12766,7 +12766,7 @@
         <v>0</v>
       </c>
       <c r="Y62" s="0">
-        <v>0</v>
+        <v>0.9569805842977519</v>
       </c>
       <c r="Z62" s="0">
         <v>0</v>
@@ -12784,7 +12784,7 @@
         <v>0</v>
       </c>
       <c r="AE62" s="0">
-        <v>0</v>
+        <v>0.73537355354738843</v>
       </c>
       <c r="AF62" s="0">
         <v>0</v>
@@ -12796,7 +12796,7 @@
         <v>0</v>
       </c>
       <c r="AI62" s="0">
-        <v>0</v>
+        <v>0.53840646268919667</v>
       </c>
       <c r="AJ62" s="0">
         <v>0</v>
@@ -12862,7 +12862,7 @@
         <v>0</v>
       </c>
       <c r="BE62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF62" s="0">
         <v>0</v>
@@ -12871,7 +12871,7 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>0</v>
+        <v>0.73114487135965167</v>
       </c>
       <c r="BI62" s="0">
         <v>0</v>
@@ -12895,7 +12895,7 @@
         <v>0</v>
       </c>
       <c r="BP62" s="0">
-        <v>0</v>
+        <v>0.81835701884592682</v>
       </c>
     </row>
     <row r="63">
@@ -12912,7 +12912,7 @@
         <v>0</v>
       </c>
       <c r="E63" s="0">
-        <v>0</v>
+        <v>0.74574326618330311</v>
       </c>
       <c r="F63" s="0">
         <v>0</v>
@@ -12921,7 +12921,7 @@
         <v>0</v>
       </c>
       <c r="H63" s="0">
-        <v>0</v>
+        <v>0.62503980639032797</v>
       </c>
       <c r="I63" s="0">
         <v>0</v>
@@ -12930,10 +12930,10 @@
         <v>0</v>
       </c>
       <c r="K63" s="0">
-        <v>1</v>
+        <v>0.67657044614982842</v>
       </c>
       <c r="L63" s="0">
-        <v>0</v>
+        <v>0.62208489054858962</v>
       </c>
       <c r="M63" s="0">
         <v>0</v>
@@ -12945,7 +12945,7 @@
         <v>0</v>
       </c>
       <c r="P63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63" s="0">
         <v>0</v>
@@ -12978,7 +12978,7 @@
         <v>0</v>
       </c>
       <c r="AA63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB63" s="0">
         <v>0</v>
@@ -12987,7 +12987,7 @@
         <v>0</v>
       </c>
       <c r="AD63" s="0">
-        <v>0</v>
+        <v>0.72426469952418382</v>
       </c>
       <c r="AE63" s="0">
         <v>0</v>
@@ -13032,7 +13032,7 @@
         <v>0</v>
       </c>
       <c r="AS63" s="0">
-        <v>0</v>
+        <v>0.65487934261404446</v>
       </c>
       <c r="AT63" s="0">
         <v>0</v>
@@ -13077,7 +13077,7 @@
         <v>0</v>
       </c>
       <c r="BH63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI63" s="0">
         <v>0</v>
@@ -13106,7 +13106,7 @@
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>0</v>
+        <v>0.78000629767557672</v>
       </c>
       <c r="B64" s="0">
         <v>0</v>
@@ -13133,7 +13133,7 @@
         <v>0</v>
       </c>
       <c r="J64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64" s="0">
         <v>0</v>
@@ -13151,7 +13151,7 @@
         <v>0</v>
       </c>
       <c r="P64" s="0">
-        <v>0</v>
+        <v>0.69209468393121387</v>
       </c>
       <c r="Q64" s="0">
         <v>0</v>
@@ -13187,7 +13187,7 @@
         <v>0</v>
       </c>
       <c r="AB64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC64" s="0">
         <v>0</v>
@@ -13202,13 +13202,13 @@
         <v>0</v>
       </c>
       <c r="AG64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH64" s="0">
-        <v>0</v>
+        <v>0.77553237069053083</v>
       </c>
       <c r="AI64" s="0">
-        <v>0</v>
+        <v>0.95199498791662585</v>
       </c>
       <c r="AJ64" s="0">
         <v>0</v>
@@ -13238,7 +13238,7 @@
         <v>0</v>
       </c>
       <c r="AS64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT64" s="0">
         <v>0</v>
@@ -13250,7 +13250,7 @@
         <v>0</v>
       </c>
       <c r="AW64" s="0">
-        <v>0</v>
+        <v>0.82671130099250101</v>
       </c>
       <c r="AX64" s="0">
         <v>0</v>
@@ -13327,10 +13327,10 @@
         <v>0</v>
       </c>
       <c r="F65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" s="0">
         <v>0</v>
@@ -13351,7 +13351,7 @@
         <v>0</v>
       </c>
       <c r="N65" s="0">
-        <v>0</v>
+        <v>0.76933672147598831</v>
       </c>
       <c r="O65" s="0">
         <v>0</v>
@@ -13372,7 +13372,7 @@
         <v>0</v>
       </c>
       <c r="U65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V65" s="0">
         <v>0</v>
@@ -13423,13 +13423,13 @@
         <v>0</v>
       </c>
       <c r="AL65" s="0">
-        <v>0</v>
+        <v>0.81669057766178677</v>
       </c>
       <c r="AM65" s="0">
         <v>0</v>
       </c>
       <c r="AN65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO65" s="0">
         <v>0</v>
@@ -13456,7 +13456,7 @@
         <v>0</v>
       </c>
       <c r="AW65" s="0">
-        <v>0</v>
+        <v>0.77962193903556454</v>
       </c>
       <c r="AX65" s="0">
         <v>0</v>
@@ -13530,7 +13530,7 @@
         <v>0</v>
       </c>
       <c r="E66" s="0">
-        <v>0</v>
+        <v>0.90666980171105604</v>
       </c>
       <c r="F66" s="0">
         <v>0</v>
@@ -13593,7 +13593,7 @@
         <v>0</v>
       </c>
       <c r="Z66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA66" s="0">
         <v>0</v>
@@ -13632,7 +13632,7 @@
         <v>0</v>
       </c>
       <c r="AM66" s="0">
-        <v>0</v>
+        <v>0.72915498416347657</v>
       </c>
       <c r="AN66" s="0">
         <v>0</v>
@@ -13653,7 +13653,7 @@
         <v>0</v>
       </c>
       <c r="AT66" s="0">
-        <v>0</v>
+        <v>0.55981536955135769</v>
       </c>
       <c r="AU66" s="0">
         <v>0</v>
@@ -13692,10 +13692,10 @@
         <v>0</v>
       </c>
       <c r="BG66" s="0">
-        <v>0</v>
+        <v>0.53486201336458183</v>
       </c>
       <c r="BH66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI66" s="0">
         <v>0</v>
@@ -13799,22 +13799,22 @@
         <v>0</v>
       </c>
       <c r="Z67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA67" s="0">
         <v>0</v>
       </c>
       <c r="AB67" s="0">
-        <v>0</v>
+        <v>0.65952060876961127</v>
       </c>
       <c r="AC67" s="0">
         <v>0</v>
       </c>
       <c r="AD67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF67" s="0">
         <v>0</v>
@@ -13853,7 +13853,7 @@
         <v>0</v>
       </c>
       <c r="AR67" s="0">
-        <v>0</v>
+        <v>0.97099250456984731</v>
       </c>
       <c r="AS67" s="0">
         <v>0</v>
@@ -13862,7 +13862,7 @@
         <v>0</v>
       </c>
       <c r="AU67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV67" s="0">
         <v>0</v>
@@ -13892,7 +13892,7 @@
         <v>0</v>
       </c>
       <c r="BE67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF67" s="0">
         <v>0</v>
@@ -13904,7 +13904,7 @@
         <v>0</v>
       </c>
       <c r="BI67" s="0">
-        <v>0</v>
+        <v>0.60680821625511494</v>
       </c>
       <c r="BJ67" s="0">
         <v>0</v>
@@ -13933,10 +13933,10 @@
         <v>0</v>
       </c>
       <c r="B68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68" s="0">
         <v>0</v>
@@ -13978,7 +13978,7 @@
         <v>0</v>
       </c>
       <c r="Q68" s="0">
-        <v>0</v>
+        <v>0.7261617056730143</v>
       </c>
       <c r="R68" s="0">
         <v>0</v>
@@ -14029,7 +14029,7 @@
         <v>0</v>
       </c>
       <c r="AH68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI68" s="0">
         <v>0</v>
@@ -14041,13 +14041,13 @@
         <v>0</v>
       </c>
       <c r="AL68" s="0">
-        <v>0</v>
+        <v>0.63601729863167766</v>
       </c>
       <c r="AM68" s="0">
         <v>0</v>
       </c>
       <c r="AN68" s="0">
-        <v>0</v>
+        <v>0.68856533759079253</v>
       </c>
       <c r="AO68" s="0">
         <v>0</v>
@@ -14107,13 +14107,13 @@
         <v>0</v>
       </c>
       <c r="BH68" s="0">
-        <v>0</v>
+        <v>0.7272231127879053</v>
       </c>
       <c r="BI68" s="0">
         <v>0</v>
       </c>
       <c r="BJ68" s="0">
-        <v>0</v>
+        <v>0.75693198144054141</v>
       </c>
       <c r="BK68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject7.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject7.xlsx
@@ -263,7 +263,7 @@
         <v>0</v>
       </c>
       <c r="AT1" s="0">
-        <v>0.52768834619375204</v>
+        <v>0.93315379641500629</v>
       </c>
       <c r="AU1" s="0">
         <v>0.98869670071142757</v>
@@ -317,7 +317,7 @@
         <v>0</v>
       </c>
       <c r="BL1" s="0">
-        <v>0.75489724845499895</v>
+        <v>0.78000629767557672</v>
       </c>
       <c r="BM1" s="0">
         <v>0</v>
@@ -555,7 +555,7 @@
         <v>0.91892755408513493</v>
       </c>
       <c r="F3" s="0">
-        <v>0.57484955735136678</v>
+        <v>0.59732672306840384</v>
       </c>
       <c r="G3" s="0">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>0.55657491102282841</v>
+        <v>0.89674468008406061</v>
       </c>
       <c r="C4" s="0">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0.61892222495231386</v>
+        <v>0.91892755408513493</v>
       </c>
       <c r="D5" s="0">
         <v>0</v>
@@ -997,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="0">
-        <v>0.66096142318013817</v>
+        <v>0.77975686285175549</v>
       </c>
       <c r="Q5" s="0">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="AH5" s="0">
-        <v>0.71925730366336715</v>
+        <v>0.93595086010146633</v>
       </c>
       <c r="AI5" s="0">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="AV5" s="0">
-        <v>0.68479469015611483</v>
+        <v>0.88001196963837036</v>
       </c>
       <c r="AW5" s="0">
         <v>0</v>
@@ -1236,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="AA6" s="0">
-        <v>0.66961750156366073</v>
+        <v>0.71479081323077209</v>
       </c>
       <c r="AB6" s="0">
         <v>0</v>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="AG6" s="0">
-        <v>0.55310158002077503</v>
+        <v>0.62033782733448062</v>
       </c>
       <c r="AH6" s="0">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="0">
-        <v>0.57815424690575545</v>
+        <v>0.94059117049602281</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="0">
-        <v>0.74540770358173658</v>
+        <v>0.99038029581945031</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
@@ -1597,10 +1597,10 @@
         <v>0</v>
       </c>
       <c r="J8" s="0">
-        <v>0.77784332600974015</v>
+        <v>0.85271147127139191</v>
       </c>
       <c r="K8" s="0">
-        <v>0.52118245396769836</v>
+        <v>0.77336474643349873</v>
       </c>
       <c r="L8" s="0">
         <v>0</v>
@@ -1741,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="BF8" s="0">
-        <v>0.67394579170152746</v>
+        <v>0.83217380717642608</v>
       </c>
       <c r="BG8" s="0">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>0.81269021304563294</v>
+        <v>0.95231206501535226</v>
       </c>
       <c r="E9" s="0">
         <v>0</v>
@@ -1857,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="AB9" s="0">
-        <v>0.73282734768726987</v>
+        <v>0.96277857386643229</v>
       </c>
       <c r="AC9" s="0">
         <v>0</v>
@@ -1872,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="AG9" s="0">
-        <v>0.78062655152021332</v>
+        <v>0.8503417935309161</v>
       </c>
       <c r="AH9" s="0">
         <v>0</v>
@@ -1985,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="0">
-        <v>0.90247663975004655</v>
+        <v>0.97896440450941746</v>
       </c>
       <c r="C10" s="0">
         <v>0</v>
@@ -2012,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>0.7945364928723031</v>
+        <v>0.99910228842123938</v>
       </c>
       <c r="L10" s="0">
         <v>0</v>
@@ -2057,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="Z10" s="0">
-        <v>0.78722208833158192</v>
+        <v>0.86264735148906047</v>
       </c>
       <c r="AA10" s="0">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="AZ10" s="0">
-        <v>0.6615532534730364</v>
+        <v>0.68383288561057776</v>
       </c>
       <c r="BA10" s="0">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="AJ11" s="0">
-        <v>0.83231385879148934</v>
+        <v>0.9313776545875061</v>
       </c>
       <c r="AK11" s="0">
         <v>0</v>
@@ -2448,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="S12" s="0">
-        <v>0.50988949316413668</v>
+        <v>0.56991612803762381</v>
       </c>
       <c r="T12" s="0">
         <v>0</v>
@@ -2735,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="AT13" s="0">
-        <v>0.6177205025393373</v>
+        <v>0.92648604230092846</v>
       </c>
       <c r="AU13" s="0">
         <v>0.79304963026265574</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>0.69772344051911905</v>
+        <v>0.83548972526585996</v>
       </c>
       <c r="P14" s="0">
         <v>0</v>
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="AZ14" s="0">
-        <v>0.90322369943105074</v>
+        <v>0.99706475009938433</v>
       </c>
       <c r="BA14" s="0">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="BM14" s="0">
-        <v>0.66196868069195269</v>
+        <v>0.76933672147598831</v>
       </c>
       <c r="BN14" s="0">
         <v>0</v>
@@ -3117,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="0">
-        <v>0.8627436468613302</v>
+        <v>0.97336048810116094</v>
       </c>
       <c r="AK15" s="0">
         <v>0</v>
@@ -3233,7 +3233,7 @@
         <v>0.77975686285175549</v>
       </c>
       <c r="F16" s="0">
-        <v>0.83385310401768953</v>
+        <v>0.9750965557909006</v>
       </c>
       <c r="G16" s="0">
         <v>0</v>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="AY16" s="0">
-        <v>0.68594982415996242</v>
+        <v>0.88668762071981533</v>
       </c>
       <c r="AZ16" s="0">
         <v>0</v>
@@ -3407,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="BL16" s="0">
-        <v>0.58597093355401664</v>
+        <v>0.69209468393121387</v>
       </c>
       <c r="BM16" s="0">
         <v>0</v>
@@ -3625,7 +3625,7 @@
         <v>0</v>
       </c>
       <c r="BP17" s="0">
-        <v>0.51537894452098254</v>
+        <v>0.7261617056730143</v>
       </c>
     </row>
     <row r="18">
@@ -3633,7 +3633,7 @@
         <v>0</v>
       </c>
       <c r="B18" s="0">
-        <v>0.59235803666418319</v>
+        <v>0.93509283642994778</v>
       </c>
       <c r="C18" s="0">
         <v>0</v>
@@ -3792,7 +3792,7 @@
         <v>0</v>
       </c>
       <c r="BC18" s="0">
-        <v>0.63060576816051883</v>
+        <v>0.97546299933923375</v>
       </c>
       <c r="BD18" s="0">
         <v>0</v>
@@ -3905,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="X19" s="0">
-        <v>0.8119612996713983</v>
+        <v>0.97717770691789552</v>
       </c>
       <c r="Y19" s="0">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="AT19" s="0">
-        <v>0.8940116120434638</v>
+        <v>0.92989868699075573</v>
       </c>
       <c r="AU19" s="0">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="AE20" s="0">
-        <v>0.5114523634885022</v>
+        <v>0.83379553959916441</v>
       </c>
       <c r="AF20" s="0">
         <v>0</v>
@@ -4371,7 +4371,7 @@
         <v>0</v>
       </c>
       <c r="AP21" s="0">
-        <v>0.5409160056493465</v>
+        <v>0.81399618978421917</v>
       </c>
       <c r="AQ21" s="0">
         <v>0</v>
@@ -4454,7 +4454,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.51613194226861003</v>
+        <v>0.93360106325978176</v>
       </c>
       <c r="B22" s="0">
         <v>0</v>
@@ -4514,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="U22" s="0">
-        <v>0.59137270217773796</v>
+        <v>0.90427859290927359</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
@@ -4684,7 +4684,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="0">
-        <v>0.80489526705039949</v>
+        <v>0.90965813750103341</v>
       </c>
       <c r="J23" s="0">
         <v>0</v>
@@ -4711,7 +4711,7 @@
         <v>0</v>
       </c>
       <c r="R23" s="0">
-        <v>0.58291196138478629</v>
+        <v>0.92717656620103561</v>
       </c>
       <c r="S23" s="0">
         <v>0</v>
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>0.5024954316574608</v>
+        <v>0.87619450591781711</v>
       </c>
       <c r="V23" s="0">
         <v>0</v>
@@ -4914,7 +4914,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="0">
-        <v>0.7044366883096248</v>
+        <v>0.74892172786858269</v>
       </c>
       <c r="R24" s="0">
         <v>0</v>
@@ -5114,7 +5114,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="0">
-        <v>0.59198851487279636</v>
+        <v>0.95692011099735497</v>
       </c>
       <c r="P25" s="0">
         <v>0</v>
@@ -5141,7 +5141,7 @@
         <v>0</v>
       </c>
       <c r="X25" s="0">
-        <v>0.71103930464019582</v>
+        <v>0.72976770516646172</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
@@ -5150,10 +5150,10 @@
         <v>0</v>
       </c>
       <c r="AA25" s="0">
-        <v>0.89448417514368939</v>
+        <v>0.97649764201651856</v>
       </c>
       <c r="AB25" s="0">
-        <v>0.94525656310324668</v>
+        <v>0.99918441012048143</v>
       </c>
       <c r="AC25" s="0">
         <v>0</v>
@@ -5255,7 +5255,7 @@
         <v>0</v>
       </c>
       <c r="BJ25" s="0">
-        <v>0.87764539957558529</v>
+        <v>0.9569805842977519</v>
       </c>
       <c r="BK25" s="0">
         <v>0</v>
@@ -5568,7 +5568,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="0">
-        <v>0.56422676059397692</v>
+        <v>0.65635787847615545</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5652,7 +5652,7 @@
         <v>0</v>
       </c>
       <c r="BE27" s="0">
-        <v>0.60836298418436185</v>
+        <v>0.96460672640317957</v>
       </c>
       <c r="BF27" s="0">
         <v>0</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="BA28" s="0">
-        <v>0.67010220896548855</v>
+        <v>0.88520658145101794</v>
       </c>
       <c r="BB28" s="0">
         <v>0</v>
@@ -5861,7 +5861,7 @@
         <v>0</v>
       </c>
       <c r="BF28" s="0">
-        <v>0.50836993950076947</v>
+        <v>0.57614644464440046</v>
       </c>
       <c r="BG28" s="0">
         <v>0</v>
@@ -5914,7 +5914,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="0">
-        <v>0.68249276199749853</v>
+        <v>0.98254490123674898</v>
       </c>
       <c r="H29" s="0">
         <v>0</v>
@@ -5959,7 +5959,7 @@
         <v>0</v>
       </c>
       <c r="V29" s="0">
-        <v>0.66156647354261844</v>
+        <v>0.86010422364683237</v>
       </c>
       <c r="W29" s="0">
         <v>0</v>
@@ -6031,7 +6031,7 @@
         <v>0</v>
       </c>
       <c r="AT29" s="0">
-        <v>0.77223934980516806</v>
+        <v>0.90724085519312014</v>
       </c>
       <c r="AU29" s="0">
         <v>0</v>
@@ -6076,7 +6076,7 @@
         <v>0</v>
       </c>
       <c r="BI29" s="0">
-        <v>0.60298189972815819</v>
+        <v>0.64489111494402662</v>
       </c>
       <c r="BJ29" s="0">
         <v>0</v>
@@ -6183,7 +6183,7 @@
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>0.63497757903884366</v>
+        <v>0.77711626676647072</v>
       </c>
       <c r="AC30" s="0">
         <v>0</v>
@@ -6270,7 +6270,7 @@
         <v>0</v>
       </c>
       <c r="BE30" s="0">
-        <v>0.72940766941484148</v>
+        <v>0.97123029264056426</v>
       </c>
       <c r="BF30" s="0">
         <v>0</v>
@@ -6452,7 +6452,7 @@
         <v>0</v>
       </c>
       <c r="AW31" s="0">
-        <v>0.80563733629093282</v>
+        <v>0.86309603444615224</v>
       </c>
       <c r="AX31" s="0">
         <v>0</v>
@@ -6604,7 +6604,7 @@
         <v>0</v>
       </c>
       <c r="AE32" s="0">
-        <v>0.91681558161723142</v>
+        <v>0.95969913202937085</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
@@ -6613,7 +6613,7 @@
         <v>0</v>
       </c>
       <c r="AH32" s="0">
-        <v>0.50543271271311996</v>
+        <v>0.79096188672068679</v>
       </c>
       <c r="AI32" s="0">
         <v>0.88421780279177176</v>
@@ -6747,7 +6747,7 @@
         <v>0.8503417935309161</v>
       </c>
       <c r="J33" s="0">
-        <v>0.5363306019700389</v>
+        <v>0.92936303117669161</v>
       </c>
       <c r="K33" s="0">
         <v>0</v>
@@ -6879,7 +6879,7 @@
         <v>0</v>
       </c>
       <c r="BB33" s="0">
-        <v>0.63979306885332443</v>
+        <v>0.79190632067812539</v>
       </c>
       <c r="BC33" s="0">
         <v>0</v>
@@ -7052,7 +7052,7 @@
         <v>0</v>
       </c>
       <c r="AQ34" s="0">
-        <v>0.5195186854370708</v>
+        <v>0.80041705670646457</v>
       </c>
       <c r="AR34" s="0">
         <v>0</v>
@@ -7073,7 +7073,7 @@
         <v>0</v>
       </c>
       <c r="AX34" s="0">
-        <v>0.80834180939201683</v>
+        <v>0.88752559278895771</v>
       </c>
       <c r="AY34" s="0">
         <v>0</v>
@@ -7135,7 +7135,7 @@
         <v>0</v>
       </c>
       <c r="B35" s="0">
-        <v>0.5918001003090454</v>
+        <v>0.7562690012393245</v>
       </c>
       <c r="C35" s="0">
         <v>0</v>
@@ -7186,7 +7186,7 @@
         <v>0</v>
       </c>
       <c r="S35" s="0">
-        <v>0.89881753562172462</v>
+        <v>0.97514269127985598</v>
       </c>
       <c r="T35" s="0">
         <v>0</v>
@@ -7225,7 +7225,7 @@
         <v>0</v>
       </c>
       <c r="AF35" s="0">
-        <v>0.83475571869562049</v>
+        <v>0.88421780279177176</v>
       </c>
       <c r="AG35" s="0">
         <v>0</v>
@@ -7303,7 +7303,7 @@
         <v>0</v>
       </c>
       <c r="BF35" s="0">
-        <v>0.72168614392758557</v>
+        <v>0.95766667694899599</v>
       </c>
       <c r="BG35" s="0">
         <v>0</v>
@@ -7321,7 +7321,7 @@
         <v>0</v>
       </c>
       <c r="BL35" s="0">
-        <v>0.59189915978933949</v>
+        <v>0.95199498791662585</v>
       </c>
       <c r="BM35" s="0">
         <v>0</v>
@@ -7344,7 +7344,7 @@
         <v>0</v>
       </c>
       <c r="C36" s="0">
-        <v>0.5467673486658341</v>
+        <v>0.73951415964874434</v>
       </c>
       <c r="D36" s="0">
         <v>0</v>
@@ -7428,7 +7428,7 @@
         <v>0</v>
       </c>
       <c r="AE36" s="0">
-        <v>0.6354491948938622</v>
+        <v>0.75382681477214608</v>
       </c>
       <c r="AF36" s="0">
         <v>0</v>
@@ -7556,7 +7556,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="0">
-        <v>0.71146503553873597</v>
+        <v>0.77597750973533497</v>
       </c>
       <c r="F37" s="0">
         <v>0</v>
@@ -7565,7 +7565,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="0">
-        <v>0.61795534258106066</v>
+        <v>0.78730089215592569</v>
       </c>
       <c r="I37" s="0">
         <v>0</v>
@@ -7619,7 +7619,7 @@
         <v>0</v>
       </c>
       <c r="Z37" s="0">
-        <v>0.85744720175202471</v>
+        <v>0.99717629918109019</v>
       </c>
       <c r="AA37" s="0">
         <v>0</v>
@@ -7780,7 +7780,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="0">
-        <v>0.52382786522975178</v>
+        <v>0.61986943269906303</v>
       </c>
       <c r="L38" s="0">
         <v>0</v>
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="BP38" s="0">
-        <v>0.54679564667734248</v>
+        <v>0.63601729863167766</v>
       </c>
     </row>
     <row r="39">
@@ -8019,7 +8019,7 @@
         <v>0</v>
       </c>
       <c r="V39" s="0">
-        <v>0.73761117686910227</v>
+        <v>0.89200856348343094</v>
       </c>
       <c r="W39" s="0">
         <v>0</v>
@@ -8082,7 +8082,7 @@
         <v>0</v>
       </c>
       <c r="AQ39" s="0">
-        <v>0.66299708918992328</v>
+        <v>0.84535009038917353</v>
       </c>
       <c r="AR39" s="0">
         <v>0</v>
@@ -8285,7 +8285,7 @@
         <v>0</v>
       </c>
       <c r="AP40" s="0">
-        <v>0.70346139729897428</v>
+        <v>0.99034296451004589</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8363,7 +8363,7 @@
         <v>0</v>
       </c>
       <c r="BP40" s="0">
-        <v>0.63944989176706579</v>
+        <v>0.68856533759079253</v>
       </c>
     </row>
     <row r="41">
@@ -8503,7 +8503,7 @@
         <v>0</v>
       </c>
       <c r="AT41" s="0">
-        <v>0.52825983422924461</v>
+        <v>0.89776082544933433</v>
       </c>
       <c r="AU41" s="0">
         <v>0</v>
@@ -8583,7 +8583,7 @@
         <v>0</v>
       </c>
       <c r="D42" s="0">
-        <v>0.7109788474300871</v>
+        <v>0.78369839954446863</v>
       </c>
       <c r="E42" s="0">
         <v>0</v>
@@ -8694,7 +8694,7 @@
         <v>0.99034296451004589</v>
       </c>
       <c r="AO42" s="0">
-        <v>0.63896156107610858</v>
+        <v>0.87352771292797327</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" s="0">
-        <v>0.60709884469109654</v>
+        <v>0.86757902829109246</v>
       </c>
       <c r="Z43" s="0">
         <v>0</v>
@@ -9184,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="BO44" s="0">
-        <v>0.70418845946411701</v>
+        <v>0.97099250456984731</v>
       </c>
       <c r="BP44" s="0">
         <v>0</v>
@@ -9201,7 +9201,7 @@
         <v>0</v>
       </c>
       <c r="D45" s="0">
-        <v>0.52457661641062647</v>
+        <v>0.68002740110455506</v>
       </c>
       <c r="E45" s="0">
         <v>0</v>
@@ -9210,7 +9210,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="0">
-        <v>0.50505815464600867</v>
+        <v>0.50586621484590477</v>
       </c>
       <c r="H45" s="0">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>0</v>
       </c>
       <c r="Q45" s="0">
-        <v>0.6259348959222808</v>
+        <v>0.64823085725352525</v>
       </c>
       <c r="R45" s="0">
         <v>0</v>
@@ -9297,7 +9297,7 @@
         <v>0</v>
       </c>
       <c r="AJ45" s="0">
-        <v>0.5556891327962209</v>
+        <v>0.75131449537792416</v>
       </c>
       <c r="AK45" s="0">
         <v>0</v>
@@ -9306,7 +9306,7 @@
         <v>0</v>
       </c>
       <c r="AM45" s="0">
-        <v>0.82391176105228636</v>
+        <v>0.97153703105434497</v>
       </c>
       <c r="AN45" s="0">
         <v>0</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="AR45" s="0">
-        <v>0.57146667978314758</v>
+        <v>0.8438823650912477</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
@@ -9378,7 +9378,7 @@
         <v>0</v>
       </c>
       <c r="BK45" s="0">
-        <v>0.65089567040622387</v>
+        <v>0.65487934261404446</v>
       </c>
       <c r="BL45" s="0">
         <v>0</v>
@@ -9604,7 +9604,7 @@
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>0.81466452395353195</v>
+        <v>0.98869670071142757</v>
       </c>
       <c r="B47" s="0">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="0">
-        <v>0.72707372887925348</v>
+        <v>0.79304963026265574</v>
       </c>
       <c r="N47" s="0">
         <v>0</v>
@@ -9748,7 +9748,7 @@
         <v>0</v>
       </c>
       <c r="AW47" s="0">
-        <v>0.59764687271324957</v>
+        <v>0.66793721119117233</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9775,7 +9775,7 @@
         <v>0</v>
       </c>
       <c r="BF47" s="0">
-        <v>0.78738857120264905</v>
+        <v>0.83490734396816513</v>
       </c>
       <c r="BG47" s="0">
         <v>0</v>
@@ -9849,7 +9849,7 @@
         <v>0</v>
       </c>
       <c r="N48" s="0">
-        <v>0.68388292771940784</v>
+        <v>0.83959280976964856</v>
       </c>
       <c r="O48" s="0">
         <v>0</v>
@@ -10151,7 +10151,7 @@
         <v>0</v>
       </c>
       <c r="AT49" s="0">
-        <v>0.72088898958739489</v>
+        <v>0.81243122068409557</v>
       </c>
       <c r="AU49" s="0">
         <v>0.66793721119117233</v>
@@ -10327,7 +10327,7 @@
         <v>0</v>
       </c>
       <c r="AJ50" s="0">
-        <v>0.58506425660509453</v>
+        <v>0.87696703912307428</v>
       </c>
       <c r="AK50" s="0">
         <v>0</v>
@@ -10563,7 +10563,7 @@
         <v>0</v>
       </c>
       <c r="AT51" s="0">
-        <v>0.5121013321912028</v>
+        <v>0.58134132529151783</v>
       </c>
       <c r="AU51" s="0">
         <v>0</v>
@@ -10581,7 +10581,7 @@
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>0.577040941558711</v>
+        <v>0.85827652678277011</v>
       </c>
       <c r="BA51" s="0">
         <v>0</v>
@@ -10643,7 +10643,7 @@
         <v>0</v>
       </c>
       <c r="D52" s="0">
-        <v>0.555848455086277</v>
+        <v>0.71593561335324518</v>
       </c>
       <c r="E52" s="0">
         <v>0</v>
@@ -10799,7 +10799,7 @@
         <v>0</v>
       </c>
       <c r="BD52" s="0">
-        <v>0.59681962392070176</v>
+        <v>0.78182369395827256</v>
       </c>
       <c r="BE52" s="0">
         <v>0</v>
@@ -10906,7 +10906,7 @@
         <v>0</v>
       </c>
       <c r="W53" s="0">
-        <v>0.70076598642638754</v>
+        <v>0.77731012350181805</v>
       </c>
       <c r="X53" s="0">
         <v>0</v>
@@ -11360,7 +11360,7 @@
         <v>0</v>
       </c>
       <c r="AK55" s="0">
-        <v>0.64741773587112339</v>
+        <v>0.83585480261590284</v>
       </c>
       <c r="AL55" s="0">
         <v>0</v>
@@ -11411,7 +11411,7 @@
         <v>0</v>
       </c>
       <c r="BB55" s="0">
-        <v>0.59836511364056966</v>
+        <v>0.78929548155754636</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
@@ -11524,7 +11524,7 @@
         <v>0</v>
       </c>
       <c r="W56" s="0">
-        <v>0.50706100422197276</v>
+        <v>0.78753049626120741</v>
       </c>
       <c r="X56" s="0">
         <v>0</v>
@@ -11679,7 +11679,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="0">
-        <v>0.74892190026051764</v>
+        <v>0.75477778480148361</v>
       </c>
       <c r="G57" s="0">
         <v>0</v>
@@ -11829,7 +11829,7 @@
         <v>0</v>
       </c>
       <c r="BD57" s="0">
-        <v>0.8023576199977549</v>
+        <v>0.95479389831541295</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
@@ -11927,7 +11927,7 @@
         <v>0</v>
       </c>
       <c r="T58" s="0">
-        <v>0.61724672322662544</v>
+        <v>0.89378957919870994</v>
       </c>
       <c r="U58" s="0">
         <v>0</v>
@@ -12148,7 +12148,7 @@
         <v>0</v>
       </c>
       <c r="Y59" s="0">
-        <v>0.88437667272715159</v>
+        <v>0.992163285324001</v>
       </c>
       <c r="Z59" s="0">
         <v>0</v>
@@ -12205,7 +12205,7 @@
         <v>0</v>
       </c>
       <c r="AR59" s="0">
-        <v>0.53444253875748227</v>
+        <v>0.75460856897221618</v>
       </c>
       <c r="AS59" s="0">
         <v>0</v>
@@ -12465,7 +12465,7 @@
         <v>0</v>
       </c>
       <c r="BJ60" s="0">
-        <v>0.55279307030850711</v>
+        <v>0.73114487135965167</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12575,7 +12575,7 @@
         <v>0.64489111494402662</v>
       </c>
       <c r="AD61" s="0">
-        <v>0.74802643820081793</v>
+        <v>0.80979957689869619</v>
       </c>
       <c r="AE61" s="0">
         <v>0</v>
@@ -12686,7 +12686,7 @@
         <v>0</v>
       </c>
       <c r="BO61" s="0">
-        <v>0.57937326199321437</v>
+        <v>0.60680821625511494</v>
       </c>
       <c r="BP61" s="0">
         <v>0</v>
@@ -12784,7 +12784,7 @@
         <v>0</v>
       </c>
       <c r="AE62" s="0">
-        <v>0.73537355354738843</v>
+        <v>0.74321617960956776</v>
       </c>
       <c r="AF62" s="0">
         <v>0</v>
@@ -12796,7 +12796,7 @@
         <v>0</v>
       </c>
       <c r="AI62" s="0">
-        <v>0.53840646268919667</v>
+        <v>0.94054225205679409</v>
       </c>
       <c r="AJ62" s="0">
         <v>0</v>
@@ -12912,7 +12912,7 @@
         <v>0</v>
       </c>
       <c r="E63" s="0">
-        <v>0.74574326618330311</v>
+        <v>0.85516129644963179</v>
       </c>
       <c r="F63" s="0">
         <v>0</v>
@@ -12921,7 +12921,7 @@
         <v>0</v>
       </c>
       <c r="H63" s="0">
-        <v>0.62503980639032797</v>
+        <v>0.78812704337058082</v>
       </c>
       <c r="I63" s="0">
         <v>0</v>
@@ -12930,10 +12930,10 @@
         <v>0</v>
       </c>
       <c r="K63" s="0">
-        <v>0.67657044614982842</v>
+        <v>0.99709035606657803</v>
       </c>
       <c r="L63" s="0">
-        <v>0.62208489054858962</v>
+        <v>0.7532585423664353</v>
       </c>
       <c r="M63" s="0">
         <v>0</v>
@@ -12987,7 +12987,7 @@
         <v>0</v>
       </c>
       <c r="AD63" s="0">
-        <v>0.72426469952418382</v>
+        <v>0.81975278965923715</v>
       </c>
       <c r="AE63" s="0">
         <v>0</v>
@@ -13205,7 +13205,7 @@
         <v>0</v>
       </c>
       <c r="AH64" s="0">
-        <v>0.77553237069053083</v>
+        <v>0.95803003662958919</v>
       </c>
       <c r="AI64" s="0">
         <v>0.95199498791662585</v>
@@ -13250,7 +13250,7 @@
         <v>0</v>
       </c>
       <c r="AW64" s="0">
-        <v>0.82671130099250101</v>
+        <v>0.86193520432153448</v>
       </c>
       <c r="AX64" s="0">
         <v>0</v>
@@ -13423,7 +13423,7 @@
         <v>0</v>
       </c>
       <c r="AL65" s="0">
-        <v>0.81669057766178677</v>
+        <v>0.82398544307085286</v>
       </c>
       <c r="AM65" s="0">
         <v>0</v>
@@ -13456,7 +13456,7 @@
         <v>0</v>
       </c>
       <c r="AW65" s="0">
-        <v>0.77962193903556454</v>
+        <v>0.85082300350660622</v>
       </c>
       <c r="AX65" s="0">
         <v>0</v>
@@ -13530,7 +13530,7 @@
         <v>0</v>
       </c>
       <c r="E66" s="0">
-        <v>0.90666980171105604</v>
+        <v>0.95040906956503401</v>
       </c>
       <c r="F66" s="0">
         <v>0</v>
@@ -13632,7 +13632,7 @@
         <v>0</v>
       </c>
       <c r="AM66" s="0">
-        <v>0.72915498416347657</v>
+        <v>0.81685571236564269</v>
       </c>
       <c r="AN66" s="0">
         <v>0</v>
@@ -13653,7 +13653,7 @@
         <v>0</v>
       </c>
       <c r="AT66" s="0">
-        <v>0.55981536955135769</v>
+        <v>0.92968517183176147</v>
       </c>
       <c r="AU66" s="0">
         <v>0</v>
@@ -13692,7 +13692,7 @@
         <v>0</v>
       </c>
       <c r="BG66" s="0">
-        <v>0.53486201336458183</v>
+        <v>0.8931032742432008</v>
       </c>
       <c r="BH66" s="0">
         <v>0</v>
@@ -13805,7 +13805,7 @@
         <v>0</v>
       </c>
       <c r="AB67" s="0">
-        <v>0.65952060876961127</v>
+        <v>0.83359047279062537</v>
       </c>
       <c r="AC67" s="0">
         <v>0</v>
@@ -14107,13 +14107,13 @@
         <v>0</v>
       </c>
       <c r="BH68" s="0">
-        <v>0.7272231127879053</v>
+        <v>0.84397365843328831</v>
       </c>
       <c r="BI68" s="0">
         <v>0</v>
       </c>
       <c r="BJ68" s="0">
-        <v>0.75693198144054141</v>
+        <v>0.81835701884592682</v>
       </c>
       <c r="BK68" s="0">
         <v>0</v>
